--- a/data/pca/factorExposure/factorExposure_2016-09-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009379571893277493</v>
+        <v>0.01347315652805318</v>
       </c>
       <c r="C2">
-        <v>0.05013663818716292</v>
+        <v>0.04256804468670995</v>
       </c>
       <c r="D2">
-        <v>0.02257254360683645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06543180906858291</v>
+      </c>
+      <c r="E2">
+        <v>0.05254218470245479</v>
+      </c>
+      <c r="F2">
+        <v>-0.08522981192098029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.06176893191240188</v>
+        <v>0.03254722238763063</v>
       </c>
       <c r="C3">
-        <v>0.09823979557357811</v>
+        <v>0.07931021004507145</v>
       </c>
       <c r="D3">
-        <v>0.05555880753088145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09672094148650892</v>
+      </c>
+      <c r="E3">
+        <v>0.06432862972693128</v>
+      </c>
+      <c r="F3">
+        <v>-0.01863467872222339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06804093278132005</v>
+        <v>0.05621538266378478</v>
       </c>
       <c r="C4">
-        <v>0.05609816279362584</v>
+        <v>0.06499120846175208</v>
       </c>
       <c r="D4">
-        <v>0.01705829075754438</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.0593331008220032</v>
+      </c>
+      <c r="E4">
+        <v>0.04742056688190566</v>
+      </c>
+      <c r="F4">
+        <v>-0.08096293601518183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.03017086512706104</v>
+        <v>0.03265258777534462</v>
       </c>
       <c r="C6">
-        <v>0.0410012176958944</v>
+        <v>0.03632620062956561</v>
       </c>
       <c r="D6">
-        <v>0.02746153050068702</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06928885087025669</v>
+      </c>
+      <c r="E6">
+        <v>0.05904876284683496</v>
+      </c>
+      <c r="F6">
+        <v>-0.07195357923349487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.02089588494249939</v>
+        <v>0.02033570684740146</v>
       </c>
       <c r="C7">
-        <v>0.03916954546950285</v>
+        <v>0.03659426418477255</v>
       </c>
       <c r="D7">
-        <v>-0.005295202386410951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04026824635280375</v>
+      </c>
+      <c r="E7">
+        <v>0.03369215914204499</v>
+      </c>
+      <c r="F7">
+        <v>-0.1081770198622734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.001337932081714715</v>
+        <v>0.003922944628320366</v>
       </c>
       <c r="C8">
-        <v>0.02158439995889859</v>
+        <v>0.02767792374666008</v>
       </c>
       <c r="D8">
-        <v>0.03038839858446752</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03516172866750769</v>
+      </c>
+      <c r="E8">
+        <v>0.04095200403363732</v>
+      </c>
+      <c r="F8">
+        <v>-0.05258415655140241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03324869158169625</v>
+        <v>0.03566059108413198</v>
       </c>
       <c r="C9">
-        <v>0.04106852669676106</v>
+        <v>0.0511632598789107</v>
       </c>
       <c r="D9">
-        <v>0.01263947094521122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04516331292497035</v>
+      </c>
+      <c r="E9">
+        <v>0.04132580928118443</v>
+      </c>
+      <c r="F9">
+        <v>-0.08890948752853196</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07009470426067632</v>
+        <v>0.1007718699163175</v>
       </c>
       <c r="C10">
-        <v>-0.1932976378725454</v>
+        <v>-0.1905032387313809</v>
       </c>
       <c r="D10">
-        <v>0.006178426524655336</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-9.373179871739406e-05</v>
+      </c>
+      <c r="E10">
+        <v>0.04537147571151937</v>
+      </c>
+      <c r="F10">
+        <v>-0.03857087542850188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04076701862471983</v>
+        <v>0.03530336031021166</v>
       </c>
       <c r="C11">
-        <v>0.05286766273230695</v>
+        <v>0.0518240894506865</v>
       </c>
       <c r="D11">
-        <v>-0.001617027482895961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03387721621694992</v>
+      </c>
+      <c r="E11">
+        <v>0.005162087227798321</v>
+      </c>
+      <c r="F11">
+        <v>-0.06407320076424715</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.0353343656166187</v>
+        <v>0.03604793585439556</v>
       </c>
       <c r="C12">
-        <v>0.0445039198591549</v>
+        <v>0.04759637630073166</v>
       </c>
       <c r="D12">
-        <v>-0.0002644346984136183</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02604863773306584</v>
+      </c>
+      <c r="E12">
+        <v>0.01484984115213177</v>
+      </c>
+      <c r="F12">
+        <v>-0.0659372615419741</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01262114571912271</v>
+        <v>0.01176847053344033</v>
       </c>
       <c r="C13">
-        <v>0.04162653063547817</v>
+        <v>0.04084683587994023</v>
       </c>
       <c r="D13">
-        <v>0.01464351739379555</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06595193992759397</v>
+      </c>
+      <c r="E13">
+        <v>0.06392421847374269</v>
+      </c>
+      <c r="F13">
+        <v>-0.1143292640935908</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.005810528419303234</v>
+        <v>0.005405852954944189</v>
       </c>
       <c r="C14">
-        <v>0.0335257962949849</v>
+        <v>0.03027659924470177</v>
       </c>
       <c r="D14">
-        <v>-0.0183270061648265</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.030039443600994</v>
+      </c>
+      <c r="E14">
+        <v>0.0282631582439879</v>
+      </c>
+      <c r="F14">
+        <v>-0.09731540764077544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.001399848801946838</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002726420081681391</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003391706567213376</v>
+      </c>
+      <c r="E15">
+        <v>-9.209936880335012e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.00245029810747824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0347064034536568</v>
+        <v>0.03285222968666347</v>
       </c>
       <c r="C16">
-        <v>0.04128112193201484</v>
+        <v>0.04607656221512098</v>
       </c>
       <c r="D16">
-        <v>0.003970541215126261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02908867121095103</v>
+      </c>
+      <c r="E16">
+        <v>0.01952910521187935</v>
+      </c>
+      <c r="F16">
+        <v>-0.0679797771790983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02425558091658974</v>
+        <v>0.01616553779999611</v>
       </c>
       <c r="C19">
-        <v>0.05895128965679795</v>
+        <v>0.05006424354464498</v>
       </c>
       <c r="D19">
-        <v>0.06888444163881474</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1015665451914628</v>
+      </c>
+      <c r="E19">
+        <v>0.08206122195831822</v>
+      </c>
+      <c r="F19">
+        <v>-0.09323373562977513</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01428939627235821</v>
+        <v>0.01314816892432311</v>
       </c>
       <c r="C20">
-        <v>0.044323736645909</v>
+        <v>0.04043493535314463</v>
       </c>
       <c r="D20">
-        <v>0.01442599930609972</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.0418921300543252</v>
+      </c>
+      <c r="E20">
+        <v>0.0559763628980631</v>
+      </c>
+      <c r="F20">
+        <v>-0.08805381827242548</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.008604200335148381</v>
+        <v>0.007495899376401509</v>
       </c>
       <c r="C21">
-        <v>0.04996492759740187</v>
+        <v>0.04504647355063059</v>
       </c>
       <c r="D21">
-        <v>0.03423888905024143</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07275409846655705</v>
+      </c>
+      <c r="E21">
+        <v>0.07338471815377424</v>
+      </c>
+      <c r="F21">
+        <v>-0.1336222781275419</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.0003801235761453876</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02338674978324187</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03339685858063294</v>
+      </c>
+      <c r="E22">
+        <v>0.01569353508443893</v>
+      </c>
+      <c r="F22">
+        <v>-0.01451885987815834</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.0003123183362711859</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02351610645691411</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03309272207801734</v>
+      </c>
+      <c r="E23">
+        <v>0.01598230991130228</v>
+      </c>
+      <c r="F23">
+        <v>-0.01438834069788739</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0300420281718366</v>
+        <v>0.03191512707019624</v>
       </c>
       <c r="C24">
-        <v>0.04621842784314559</v>
+        <v>0.05350009805466809</v>
       </c>
       <c r="D24">
-        <v>-0.0005563712088439215</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02740635090217388</v>
+      </c>
+      <c r="E24">
+        <v>0.01676617425348186</v>
+      </c>
+      <c r="F24">
+        <v>-0.07575061829297881</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04630658987216588</v>
+        <v>0.04223206604657986</v>
       </c>
       <c r="C25">
-        <v>0.05662414960699699</v>
+        <v>0.05856364893446009</v>
       </c>
       <c r="D25">
-        <v>-0.01102499900518819</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.0248892440071728</v>
+      </c>
+      <c r="E25">
+        <v>0.01196398176117376</v>
+      </c>
+      <c r="F25">
+        <v>-0.07909773242799445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01117472186980064</v>
+        <v>0.01345865856660433</v>
       </c>
       <c r="C26">
-        <v>0.01725612524376549</v>
+        <v>0.01599631304127276</v>
       </c>
       <c r="D26">
-        <v>0.002301130776985454</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02669052461396291</v>
+      </c>
+      <c r="E26">
+        <v>0.02893656318108813</v>
+      </c>
+      <c r="F26">
+        <v>-0.07331318789225551</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07994001521440237</v>
+        <v>0.1349508709962977</v>
       </c>
       <c r="C28">
-        <v>-0.219640395457459</v>
+        <v>-0.2396815494857562</v>
       </c>
       <c r="D28">
-        <v>0.0009728209610171061</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01591131759320871</v>
+      </c>
+      <c r="E28">
+        <v>0.0487329002289655</v>
+      </c>
+      <c r="F28">
+        <v>-0.05275446573272115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.01067301358107403</v>
+        <v>0.005944053630041906</v>
       </c>
       <c r="C29">
-        <v>0.02616197324206554</v>
+        <v>0.02602757119122994</v>
       </c>
       <c r="D29">
-        <v>-0.01781713947274892</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.023704786987176</v>
+      </c>
+      <c r="E29">
+        <v>0.02961708412148927</v>
+      </c>
+      <c r="F29">
+        <v>-0.08888700636644119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05307623270357868</v>
+        <v>0.03990391022398009</v>
       </c>
       <c r="C30">
-        <v>0.05929397535924266</v>
+        <v>0.06480860445711206</v>
       </c>
       <c r="D30">
-        <v>0.03616176412925726</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1071613031449602</v>
+      </c>
+      <c r="E30">
+        <v>0.03946654423565939</v>
+      </c>
+      <c r="F30">
+        <v>-0.101130998745837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04384074961775773</v>
+        <v>0.05399148085875256</v>
       </c>
       <c r="C31">
-        <v>0.03187794973867842</v>
+        <v>0.05309160951028332</v>
       </c>
       <c r="D31">
-        <v>-0.01207803589515382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006508915954275581</v>
+      </c>
+      <c r="E31">
+        <v>0.04912498161823257</v>
+      </c>
+      <c r="F31">
+        <v>-0.08114458103923371</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.004289679180395518</v>
+        <v>0.003893764590721309</v>
       </c>
       <c r="C32">
-        <v>0.04635454190581868</v>
+        <v>0.03386692214861046</v>
       </c>
       <c r="D32">
-        <v>0.01347015236456041</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04877163869717339</v>
+      </c>
+      <c r="E32">
+        <v>0.02182637833913964</v>
+      </c>
+      <c r="F32">
+        <v>-0.06970644694170759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02717988663526013</v>
+        <v>0.02397836297282492</v>
       </c>
       <c r="C33">
-        <v>0.05984793035676227</v>
+        <v>0.05418086700150555</v>
       </c>
       <c r="D33">
-        <v>0.02076628626716594</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.08314619589197303</v>
+      </c>
+      <c r="E33">
+        <v>0.05051184728949001</v>
+      </c>
+      <c r="F33">
+        <v>-0.1283614902513304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05117054540244145</v>
+        <v>0.04055434918289803</v>
       </c>
       <c r="C34">
-        <v>0.05389709275929581</v>
+        <v>0.06418766161376996</v>
       </c>
       <c r="D34">
-        <v>-0.01273391938253338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.03450310126939457</v>
+      </c>
+      <c r="E34">
+        <v>-0.006181884804019292</v>
+      </c>
+      <c r="F34">
+        <v>-0.07395140105205966</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.008431918622696216</v>
+        <v>0.01363663589488804</v>
       </c>
       <c r="C36">
-        <v>0.01353659947449304</v>
+        <v>0.0118642113355402</v>
       </c>
       <c r="D36">
-        <v>0.001955993324623752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02921435422501746</v>
+      </c>
+      <c r="E36">
+        <v>0.03548313705089275</v>
+      </c>
+      <c r="F36">
+        <v>-0.08229116652025047</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03223681972671342</v>
+        <v>0.02528380548263917</v>
       </c>
       <c r="C38">
-        <v>0.02881390875557972</v>
+        <v>0.02545858200914634</v>
       </c>
       <c r="D38">
-        <v>-0.0005519011464089798</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02823252396889796</v>
+      </c>
+      <c r="E38">
+        <v>0.0348804176459016</v>
+      </c>
+      <c r="F38">
+        <v>-0.06646557745124666</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04093525840405256</v>
+        <v>0.03773012885869177</v>
       </c>
       <c r="C39">
-        <v>0.06915738045883402</v>
+        <v>0.06854947276202117</v>
       </c>
       <c r="D39">
-        <v>0.01982092933540196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05265993196268041</v>
+      </c>
+      <c r="E39">
+        <v>0.01859117523696218</v>
+      </c>
+      <c r="F39">
+        <v>-0.08970754375450364</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01901390936077915</v>
+        <v>0.01597258256254199</v>
       </c>
       <c r="C40">
-        <v>0.02846892859142792</v>
+        <v>0.0368476495230284</v>
       </c>
       <c r="D40">
-        <v>0.03448969291284236</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04192712491650032</v>
+      </c>
+      <c r="E40">
+        <v>0.07138943170657143</v>
+      </c>
+      <c r="F40">
+        <v>-0.08736192183998986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.01068715923615601</v>
+        <v>0.01810150440399824</v>
       </c>
       <c r="C41">
-        <v>0.005648294088258884</v>
+        <v>0.005591004927746653</v>
       </c>
       <c r="D41">
-        <v>-0.001121125022857015</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01902155771042293</v>
+      </c>
+      <c r="E41">
+        <v>0.03814719262156024</v>
+      </c>
+      <c r="F41">
+        <v>-0.07101436344851486</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.002413560713318267</v>
+        <v>0.001292326698956583</v>
       </c>
       <c r="C42">
-        <v>0.005816785913137567</v>
+        <v>0.003110984796336473</v>
       </c>
       <c r="D42">
-        <v>0.007784299795203622</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.0002873762057535208</v>
+      </c>
+      <c r="E42">
+        <v>0.007493433608417296</v>
+      </c>
+      <c r="F42">
+        <v>0.006045730793718852</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03308326289444853</v>
+        <v>0.02970925209549585</v>
       </c>
       <c r="C43">
-        <v>0.02049053260336357</v>
+        <v>0.02053573801804493</v>
       </c>
       <c r="D43">
-        <v>0.005718928686876086</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04271866956720925</v>
+      </c>
+      <c r="E43">
+        <v>0.04327731490198243</v>
+      </c>
+      <c r="F43">
+        <v>-0.08378155873044867</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01965484521353768</v>
+        <v>0.01493742605720182</v>
       </c>
       <c r="C44">
-        <v>0.05782149097138017</v>
+        <v>0.05187346475252066</v>
       </c>
       <c r="D44">
-        <v>0.01594213990063847</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04246588963732072</v>
+      </c>
+      <c r="E44">
+        <v>0.05852239811427738</v>
+      </c>
+      <c r="F44">
+        <v>-0.09032267302919081</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.0007355067263649702</v>
+        <v>0.007270545915521719</v>
       </c>
       <c r="C46">
-        <v>0.02310866681472228</v>
+        <v>0.02501958226251165</v>
       </c>
       <c r="D46">
-        <v>-0.01702002099698724</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01473059201931289</v>
+      </c>
+      <c r="E46">
+        <v>0.03521868441252524</v>
+      </c>
+      <c r="F46">
+        <v>-0.1027680785537869</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07902797084621728</v>
+        <v>0.08657203372884413</v>
       </c>
       <c r="C47">
-        <v>0.06988286788323607</v>
+        <v>0.07979190835985513</v>
       </c>
       <c r="D47">
-        <v>-0.003655260311722924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01514282584653839</v>
+      </c>
+      <c r="E47">
+        <v>0.05636871146606161</v>
+      </c>
+      <c r="F47">
+        <v>-0.0808797108487066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.0196636203842016</v>
+        <v>0.01587945935619329</v>
       </c>
       <c r="C48">
-        <v>0.01240714014007097</v>
+        <v>0.01728391905168231</v>
       </c>
       <c r="D48">
-        <v>-0.005153354866184266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01921898986518596</v>
+      </c>
+      <c r="E48">
+        <v>0.04614450892224897</v>
+      </c>
+      <c r="F48">
+        <v>-0.09565479555336583</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08731684813720926</v>
+        <v>0.07262336175860012</v>
       </c>
       <c r="C50">
-        <v>0.06618908929844797</v>
+        <v>0.06991642932457307</v>
       </c>
       <c r="D50">
-        <v>-0.01371274371942781</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003298822534304461</v>
+      </c>
+      <c r="E50">
+        <v>0.05229937006432849</v>
+      </c>
+      <c r="F50">
+        <v>-0.0681493600816008</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.01114041837206049</v>
+        <v>0.01020656092128083</v>
       </c>
       <c r="C51">
-        <v>0.04624558853129272</v>
+        <v>0.03357438844734723</v>
       </c>
       <c r="D51">
-        <v>0.0008146702308364856</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04888629802492839</v>
+      </c>
+      <c r="E51">
+        <v>0.02041469387307094</v>
+      </c>
+      <c r="F51">
+        <v>-0.08488772375086057</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.09491581114926222</v>
+        <v>0.09225894649494636</v>
       </c>
       <c r="C53">
-        <v>0.07392741083119181</v>
+        <v>0.08877210721775619</v>
       </c>
       <c r="D53">
-        <v>-0.03669285330019068</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03953086062766411</v>
+      </c>
+      <c r="E53">
+        <v>0.0532053326251977</v>
+      </c>
+      <c r="F53">
+        <v>-0.08860550418598433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02790510906324578</v>
+        <v>0.02767116556008455</v>
       </c>
       <c r="C54">
-        <v>0.01983636230839756</v>
+        <v>0.02687876131382396</v>
       </c>
       <c r="D54">
-        <v>0.002071105982591837</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03278279783317566</v>
+      </c>
+      <c r="E54">
+        <v>0.04038092957744596</v>
+      </c>
+      <c r="F54">
+        <v>-0.09430459200670452</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07472793100466482</v>
+        <v>0.08296203805581445</v>
       </c>
       <c r="C55">
-        <v>0.0662896391051212</v>
+        <v>0.07246253819423806</v>
       </c>
       <c r="D55">
-        <v>-0.03440605020837086</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04702497001444735</v>
+      </c>
+      <c r="E55">
+        <v>0.04294167830148352</v>
+      </c>
+      <c r="F55">
+        <v>-0.06467922171679627</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1542350562553078</v>
+        <v>0.145633849405083</v>
       </c>
       <c r="C56">
-        <v>0.08890487324911699</v>
+        <v>0.1066760528140814</v>
       </c>
       <c r="D56">
-        <v>-0.02957897410149913</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.05073745523792605</v>
+      </c>
+      <c r="E56">
+        <v>0.04886507540807271</v>
+      </c>
+      <c r="F56">
+        <v>-0.05313922028090726</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.002305858734360344</v>
+        <v>0.0008947618786881706</v>
       </c>
       <c r="C57">
-        <v>0.005136192754692672</v>
+        <v>0.002797987696050559</v>
       </c>
       <c r="D57">
-        <v>0.01413167948533608</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01369157065770042</v>
+      </c>
+      <c r="E57">
+        <v>0.006416585381415399</v>
+      </c>
+      <c r="F57">
+        <v>-0.01217569188068143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.07889703220869194</v>
+        <v>0.02959827729739709</v>
       </c>
       <c r="C58">
-        <v>0.03002553005534039</v>
+        <v>0.03805111847446047</v>
       </c>
       <c r="D58">
-        <v>0.9629793696544212</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.494307565348488</v>
+      </c>
+      <c r="E58">
+        <v>0.6784792417846014</v>
+      </c>
+      <c r="F58">
+        <v>0.4611770035844618</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1282726103041509</v>
+        <v>0.1478933524293834</v>
       </c>
       <c r="C59">
-        <v>-0.2059809124235838</v>
+        <v>-0.1859726159034171</v>
       </c>
       <c r="D59">
-        <v>0.02191973764439099</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03072170227551716</v>
+      </c>
+      <c r="E59">
+        <v>0.02616096148101293</v>
+      </c>
+      <c r="F59">
+        <v>-0.02149459842987807</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3197868294518842</v>
+        <v>0.2790049665785414</v>
       </c>
       <c r="C60">
-        <v>0.0862375608470466</v>
+        <v>0.09821614729393281</v>
       </c>
       <c r="D60">
-        <v>-0.02155606116980835</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2058959011454935</v>
+      </c>
+      <c r="E60">
+        <v>-0.2821251595564342</v>
+      </c>
+      <c r="F60">
+        <v>0.120878392030307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03684990081572027</v>
+        <v>0.0393552839423175</v>
       </c>
       <c r="C61">
-        <v>0.06217441171450661</v>
+        <v>0.06148168029505228</v>
       </c>
       <c r="D61">
-        <v>0.01033742519570775</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.0471373461980544</v>
+      </c>
+      <c r="E61">
+        <v>0.02239510840513494</v>
+      </c>
+      <c r="F61">
+        <v>-0.08083323373242492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01332157681366394</v>
+        <v>0.01482263962397118</v>
       </c>
       <c r="C63">
-        <v>0.03704342608840381</v>
+        <v>0.03163228742865254</v>
       </c>
       <c r="D63">
-        <v>-0.005496920313783218</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02285735414387679</v>
+      </c>
+      <c r="E63">
+        <v>0.03749619273687309</v>
+      </c>
+      <c r="F63">
+        <v>-0.07532222390662477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.0530828280261947</v>
+        <v>0.05527314510430653</v>
       </c>
       <c r="C64">
-        <v>0.02997922027900134</v>
+        <v>0.0534375008252323</v>
       </c>
       <c r="D64">
-        <v>-0.006225246063622645</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01018111647094628</v>
+      </c>
+      <c r="E64">
+        <v>0.02402224067691699</v>
+      </c>
+      <c r="F64">
+        <v>-0.08827633202457219</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09402110554345892</v>
+        <v>0.06593944626688776</v>
       </c>
       <c r="C65">
-        <v>0.04262940853246407</v>
+        <v>0.03938407415433227</v>
       </c>
       <c r="D65">
-        <v>0.03440832161181009</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08611465962737376</v>
+      </c>
+      <c r="E65">
+        <v>0.03187780333212849</v>
+      </c>
+      <c r="F65">
+        <v>-0.02462179210845618</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06550871548868645</v>
+        <v>0.05019025639375139</v>
       </c>
       <c r="C66">
-        <v>0.1032631789023</v>
+        <v>0.09156515736930325</v>
       </c>
       <c r="D66">
-        <v>0.02468474561489477</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07933958816006038</v>
+      </c>
+      <c r="E66">
+        <v>0.02049903461423424</v>
+      </c>
+      <c r="F66">
+        <v>-0.09150340832173746</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05692488551311477</v>
+        <v>0.04802322787798058</v>
       </c>
       <c r="C67">
-        <v>0.032456993916001</v>
+        <v>0.03142880725717804</v>
       </c>
       <c r="D67">
-        <v>-0.008043456818731549</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0149284026583618</v>
+      </c>
+      <c r="E67">
+        <v>0.0200278795148212</v>
+      </c>
+      <c r="F67">
+        <v>-0.0530094683938746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1074026669419461</v>
+        <v>0.1529388076635291</v>
       </c>
       <c r="C68">
-        <v>-0.2900493105145306</v>
+        <v>-0.2521313326098689</v>
       </c>
       <c r="D68">
-        <v>0.003045749090248824</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01795235657524115</v>
+      </c>
+      <c r="E68">
+        <v>0.04124958238619388</v>
+      </c>
+      <c r="F68">
+        <v>-0.01877732486243045</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.08745822411512122</v>
+        <v>0.08672232375985843</v>
       </c>
       <c r="C69">
-        <v>0.06396031124422488</v>
+        <v>0.08563186321117887</v>
       </c>
       <c r="D69">
-        <v>-0.03179970499594548</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009434635306873992</v>
+      </c>
+      <c r="E69">
+        <v>0.03088672518342192</v>
+      </c>
+      <c r="F69">
+        <v>-0.09670371596108007</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1161252400294907</v>
+        <v>0.1451708816229258</v>
       </c>
       <c r="C71">
-        <v>-0.251305304209519</v>
+        <v>-0.2307935513366814</v>
       </c>
       <c r="D71">
-        <v>0.01847818924339289</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01480540299797637</v>
+      </c>
+      <c r="E71">
+        <v>0.0603845152734681</v>
+      </c>
+      <c r="F71">
+        <v>-0.05626253233411484</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.08263504263840193</v>
+        <v>0.09502054756519933</v>
       </c>
       <c r="C72">
-        <v>0.04878221111418687</v>
+        <v>0.05781949839175501</v>
       </c>
       <c r="D72">
-        <v>-0.01948746376712355</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02034420621262681</v>
+      </c>
+      <c r="E72">
+        <v>0.009078901718991764</v>
+      </c>
+      <c r="F72">
+        <v>-0.08109057891572333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4377811488100037</v>
+        <v>0.3454260107818592</v>
       </c>
       <c r="C73">
-        <v>0.05225829329469215</v>
+        <v>0.07865071285938505</v>
       </c>
       <c r="D73">
-        <v>0.03014869856255665</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.4289037235261337</v>
+      </c>
+      <c r="E73">
+        <v>-0.4893970111767441</v>
+      </c>
+      <c r="F73">
+        <v>0.2867104831352159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.121168166008892</v>
+        <v>0.1120279511727029</v>
       </c>
       <c r="C74">
-        <v>0.1110544492260527</v>
+        <v>0.1008952793121154</v>
       </c>
       <c r="D74">
-        <v>-0.01229286493811733</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02889336008461615</v>
+      </c>
+      <c r="E74">
+        <v>0.06544632435403913</v>
+      </c>
+      <c r="F74">
+        <v>-0.05966270847117217</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2620776837603228</v>
+        <v>0.258119128651969</v>
       </c>
       <c r="C75">
-        <v>0.1122600143624343</v>
+        <v>0.1382650341238963</v>
       </c>
       <c r="D75">
-        <v>-0.05067088260677401</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1273119606368875</v>
+      </c>
+      <c r="E75">
+        <v>0.07960767394627999</v>
+      </c>
+      <c r="F75">
+        <v>-0.02645975266175232</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1220404398164888</v>
+        <v>0.128826585620652</v>
       </c>
       <c r="C76">
-        <v>0.1001030161143415</v>
+        <v>0.1054083697622484</v>
       </c>
       <c r="D76">
-        <v>-0.03242051164500606</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05987490343890275</v>
+      </c>
+      <c r="E76">
+        <v>0.06877812665269464</v>
+      </c>
+      <c r="F76">
+        <v>-0.06947580443665266</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07867342207325492</v>
+        <v>0.06206169314257431</v>
       </c>
       <c r="C77">
-        <v>0.05763918175841796</v>
+        <v>0.06694357253733763</v>
       </c>
       <c r="D77">
-        <v>0.04387184083172044</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06491484399604713</v>
+      </c>
+      <c r="E77">
+        <v>0.06943331623737703</v>
+      </c>
+      <c r="F77">
+        <v>-0.1147882042491043</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04576124243139077</v>
+        <v>0.0428410033203724</v>
       </c>
       <c r="C78">
-        <v>0.04081096656145414</v>
+        <v>0.05388409620892619</v>
       </c>
       <c r="D78">
-        <v>0.01449592967870286</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07275341240477096</v>
+      </c>
+      <c r="E78">
+        <v>0.0227484509067673</v>
+      </c>
+      <c r="F78">
+        <v>-0.1033053754584204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02123064419931982</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03800474992188867</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05932909063287191</v>
+      </c>
+      <c r="E79">
+        <v>0.04825841921412418</v>
+      </c>
+      <c r="F79">
+        <v>-0.03575762738364292</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04755538455343042</v>
+        <v>0.03405467512535221</v>
       </c>
       <c r="C80">
-        <v>0.05275274324064955</v>
+        <v>0.05376693007295843</v>
       </c>
       <c r="D80">
-        <v>0.02645696747138165</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04692736890938131</v>
+      </c>
+      <c r="E80">
+        <v>0.008625656108778386</v>
+      </c>
+      <c r="F80">
+        <v>-0.03282592488064526</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1436172001987638</v>
+        <v>0.1406226726659787</v>
       </c>
       <c r="C81">
-        <v>0.07614231960237093</v>
+        <v>0.09802850695570468</v>
       </c>
       <c r="D81">
-        <v>-0.02251864096140684</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09558367428526882</v>
+      </c>
+      <c r="E81">
+        <v>0.08247957846818668</v>
+      </c>
+      <c r="F81">
+        <v>-0.02553148521811664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.07323500200767361</v>
+        <v>0.1935088380118563</v>
       </c>
       <c r="C82">
-        <v>0.04851350433693404</v>
+        <v>0.1391250778452768</v>
       </c>
       <c r="D82">
-        <v>-0.03001476343827012</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2236595653105256</v>
+      </c>
+      <c r="E82">
+        <v>0.01181876991428729</v>
+      </c>
+      <c r="F82">
+        <v>-0.07581751070572978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02744596075366235</v>
+        <v>0.02700994380669446</v>
       </c>
       <c r="C83">
-        <v>0.01798145930819554</v>
+        <v>0.03794418141445249</v>
       </c>
       <c r="D83">
-        <v>0.01638073395950427</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03600691255680499</v>
+      </c>
+      <c r="E83">
+        <v>0.008428276158132115</v>
+      </c>
+      <c r="F83">
+        <v>-0.05046469009669254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.2396048477343121</v>
+        <v>0.2060930543506572</v>
       </c>
       <c r="C85">
-        <v>0.1086486781298658</v>
+        <v>0.1254125120083486</v>
       </c>
       <c r="D85">
-        <v>-0.116989637206116</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1085435312727287</v>
+      </c>
+      <c r="E85">
+        <v>0.004427536631447244</v>
+      </c>
+      <c r="F85">
+        <v>0.01327837028421327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.003262475763455261</v>
+        <v>0.01136258195496839</v>
       </c>
       <c r="C86">
-        <v>0.02205818752961109</v>
+        <v>0.03023993332856277</v>
       </c>
       <c r="D86">
-        <v>0.02060988176562905</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07366684245092484</v>
+      </c>
+      <c r="E86">
+        <v>0.04507327282746974</v>
+      </c>
+      <c r="F86">
+        <v>-0.1391227564183805</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01880874611469789</v>
+        <v>0.01973940392344543</v>
       </c>
       <c r="C87">
-        <v>0.0178429965422792</v>
+        <v>0.02080862941976325</v>
       </c>
       <c r="D87">
-        <v>0.09171279914777863</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09148636932927393</v>
+      </c>
+      <c r="E87">
+        <v>0.08390859633688202</v>
+      </c>
+      <c r="F87">
+        <v>-0.09282308929978512</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1065197239367416</v>
+        <v>0.09034118517115823</v>
       </c>
       <c r="C88">
-        <v>0.06709384199046094</v>
+        <v>0.06312917895005603</v>
       </c>
       <c r="D88">
-        <v>-0.01267940441668709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0140853117437673</v>
+      </c>
+      <c r="E88">
+        <v>0.03240085156789473</v>
+      </c>
+      <c r="F88">
+        <v>-0.06824472148782103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1804317512150256</v>
+        <v>0.2254866761364153</v>
       </c>
       <c r="C89">
-        <v>-0.3820155272975582</v>
+        <v>-0.3813803465617254</v>
       </c>
       <c r="D89">
-        <v>-0.02899204831091689</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01441633423824661</v>
+      </c>
+      <c r="E89">
+        <v>0.0378098560685677</v>
+      </c>
+      <c r="F89">
+        <v>-0.1003728817557095</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1677031684642287</v>
+        <v>0.2032952453280556</v>
       </c>
       <c r="C90">
-        <v>-0.3492805101085169</v>
+        <v>-0.3163368392077784</v>
       </c>
       <c r="D90">
-        <v>0.002080568241903851</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.011795740742019</v>
+      </c>
+      <c r="E90">
+        <v>0.06414612505515918</v>
+      </c>
+      <c r="F90">
+        <v>-0.0485372635174089</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2060960912732012</v>
+        <v>0.191156632897529</v>
       </c>
       <c r="C91">
-        <v>0.1062708590708039</v>
+        <v>0.1388985865728196</v>
       </c>
       <c r="D91">
-        <v>-0.04845870642868569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1022492953887794</v>
+      </c>
+      <c r="E91">
+        <v>0.07393454607581855</v>
+      </c>
+      <c r="F91">
+        <v>-0.04789609090195211</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1625260644223491</v>
+        <v>0.1848749141347547</v>
       </c>
       <c r="C92">
-        <v>-0.2905749119748788</v>
+        <v>-0.2775589247148046</v>
       </c>
       <c r="D92">
-        <v>-0.01207585777872554</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004955141825312341</v>
+      </c>
+      <c r="E92">
+        <v>0.06988934605257491</v>
+      </c>
+      <c r="F92">
+        <v>-0.06912691410410464</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1937191806379067</v>
+        <v>0.228284621725622</v>
       </c>
       <c r="C93">
-        <v>-0.3470941342838701</v>
+        <v>-0.3198256211936514</v>
       </c>
       <c r="D93">
-        <v>0.007494367373783867</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001952579424716113</v>
+      </c>
+      <c r="E93">
+        <v>0.05093168624271061</v>
+      </c>
+      <c r="F93">
+        <v>-0.04518594455160594</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.2977966160716617</v>
+        <v>0.3410437824964301</v>
       </c>
       <c r="C94">
-        <v>0.1652612092844179</v>
+        <v>0.1918599499519274</v>
       </c>
       <c r="D94">
-        <v>-0.08993363134540386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4688733797210448</v>
+      </c>
+      <c r="E94">
+        <v>0.1485009013680514</v>
+      </c>
+      <c r="F94">
+        <v>0.4510463445765115</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.08648450303506935</v>
+        <v>0.08238838080085287</v>
       </c>
       <c r="C95">
-        <v>0.0611013325551363</v>
+        <v>0.07092681223552701</v>
       </c>
       <c r="D95">
-        <v>0.02630200446092751</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1536445624438699</v>
+      </c>
+      <c r="E95">
+        <v>-0.1339596255421428</v>
+      </c>
+      <c r="F95">
+        <v>-0.1779530148862136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2070235487082906</v>
+        <v>0.1886622296786207</v>
       </c>
       <c r="C98">
-        <v>0.01201037240931616</v>
+        <v>0.04098627212771042</v>
       </c>
       <c r="D98">
-        <v>0.02232287975506342</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1753833885422386</v>
+      </c>
+      <c r="E98">
+        <v>-0.1557859978553535</v>
+      </c>
+      <c r="F98">
+        <v>0.03551592706876047</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.01038396406584277</v>
+        <v>0.0058212716462937</v>
       </c>
       <c r="C101">
-        <v>0.02631174598542055</v>
+        <v>0.02577753706736124</v>
       </c>
       <c r="D101">
-        <v>-0.01791362997664131</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02304939550708767</v>
+      </c>
+      <c r="E101">
+        <v>0.03008875022517945</v>
+      </c>
+      <c r="F101">
+        <v>-0.08839027831092408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1229882205822618</v>
+        <v>0.1228921301579658</v>
       </c>
       <c r="C102">
-        <v>0.07063803768750364</v>
+        <v>0.1005204439608648</v>
       </c>
       <c r="D102">
-        <v>-0.0431406962715866</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05107291212126637</v>
+      </c>
+      <c r="E102">
+        <v>-0.008341958238949529</v>
+      </c>
+      <c r="F102">
+        <v>-0.04110665651403244</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
